--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Schmidtpaul.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSchmidt\Documents\GitHub\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F01333-4827-4E0D-805A-FB6ECBDD6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB03B4A-916C-46DC-B72F-9ADE22002A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>Time</t>
   </si>
@@ -300,6 +300,21 @@
   </si>
   <si>
     <t>Pro-RUWA via zoom</t>
+  </si>
+  <si>
+    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6114</t>
+  </si>
+  <si>
+    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6111</t>
+  </si>
+  <si>
+    <t>Jun 2023</t>
+  </si>
+  <si>
+    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6112</t>
+  </si>
+  <si>
+    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6113</t>
   </si>
 </sst>
 </file>
@@ -652,11 +667,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -717,85 +730,85 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -804,21 +817,21 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>78</v>
@@ -827,30 +840,30 @@
         <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -858,56 +871,56 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -916,21 +929,21 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -939,90 +952,90 @@
         <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1034,21 +1047,21 @@
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>78</v>
@@ -1057,18 +1070,18 @@
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1080,27 +1093,27 @@
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -1108,13 +1121,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1126,70 +1139,70 @@
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
         <v>70</v>
@@ -1200,162 +1213,254 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>62</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F34" t="s">
         <v>72</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G34" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSchmidt\Documents\GitHub\Schmidtpaul.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB03B4A-916C-46DC-B72F-9ADE22002A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFBD8C-8551-48E9-AD27-AD82B783F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="workshops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
   <si>
     <t>Time</t>
   </si>
@@ -315,6 +315,21 @@
   </si>
   <si>
     <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6113</t>
+  </si>
+  <si>
+    <t>R Introduction</t>
+  </si>
+  <si>
+    <t>Universtität Flensburg via zoom</t>
+  </si>
+  <si>
+    <t>Nov 2023</t>
+  </si>
+  <si>
+    <t>Data Science with R - an Introduction</t>
+  </si>
+  <si>
+    <t>Max Planck Institut Tübingen via zoom</t>
   </si>
 </sst>
 </file>
@@ -667,9 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -707,22 +724,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -730,85 +747,85 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -817,7 +834,7 @@
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,59 +842,59 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -886,30 +903,30 @@
         <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,10 +934,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -932,7 +949,7 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,10 +957,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -955,7 +972,7 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,91 +980,91 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1070,7 +1087,7 @@
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,10 +1095,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1093,41 +1110,41 @@
         <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1139,35 +1156,35 @@
         <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -1185,41 +1202,41 @@
         <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1231,27 +1248,27 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -1259,45 +1276,45 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -1305,82 +1322,82 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1392,75 +1409,121 @@
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>63</v>
       </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
         <v>72</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G36" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Schmidtpaul.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSchmidt\Documents\GitHub\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFBD8C-8551-48E9-AD27-AD82B783F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994CA8F-A261-4FBD-B5BD-04B64A47A472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="workshops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
   <si>
     <t>Time</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Max Planck Institut Tübingen via zoom</t>
+  </si>
+  <si>
+    <t>Oct 2023</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
   </si>
 </sst>
 </file>
@@ -682,11 +688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -724,22 +728,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -747,22 +751,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -770,7 +774,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -793,68 +797,68 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -862,16 +866,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>78</v>
@@ -880,50 +884,50 @@
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -931,7 +935,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -949,12 +953,12 @@
         <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -972,44 +976,44 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
@@ -1018,50 +1022,50 @@
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1069,7 +1073,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1084,15 +1088,15 @@
         <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -1107,15 +1111,15 @@
         <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1130,15 +1134,15 @@
         <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1153,30 +1157,30 @@
         <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -1184,39 +1188,39 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>78</v>
@@ -1225,18 +1229,18 @@
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1248,41 +1252,41 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1294,27 +1298,27 @@
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -1322,56 +1326,56 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -1380,125 +1384,125 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -1506,24 +1510,162 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F42" t="s">
         <v>72</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G42" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSchmidt\Documents\GitHub\Schmidtpaul.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994CA8F-A261-4FBD-B5BD-04B64A47A472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF91831E-26F2-4366-81F9-03E90BF768CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="workshops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
   <si>
     <t>Time</t>
   </si>
@@ -688,22 +688,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5703125" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="214.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5546875" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="214.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,248 +728,248 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>78</v>
@@ -976,67 +978,67 @@
         <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
@@ -1045,41 +1047,41 @@
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1091,18 +1093,18 @@
         <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1114,110 +1116,110 @@
         <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1229,18 +1231,18 @@
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1252,41 +1254,41 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1298,35 +1300,35 @@
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
         <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -1344,41 +1346,41 @@
         <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1390,156 +1392,156 @@
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1551,121 +1553,75 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF91831E-26F2-4366-81F9-03E90BF768CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92FCABE-B923-4F06-BF83-E325EDB8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
+    <workbookView xWindow="-28920" yWindow="1905" windowWidth="29040" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="workshops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="114">
   <si>
     <t>Time</t>
   </si>
@@ -62,27 +62,15 @@
     <t>Data science for experimental life sciences with R (part 2)</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3113</t>
-  </si>
-  <si>
     <t>Eng</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3114</t>
-  </si>
-  <si>
     <t>Ger</t>
   </si>
   <si>
     <t>Data science for experimental life sciences with R (part 1)</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3111</t>
-  </si>
-  <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3112</t>
-  </si>
-  <si>
     <t>Statistics with R - an Introduction</t>
   </si>
   <si>
@@ -98,18 +86,6 @@
     <t>Mar 2022</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3106</t>
-  </si>
-  <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3104</t>
-  </si>
-  <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3105</t>
-  </si>
-  <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=3103</t>
-  </si>
-  <si>
     <t>Dec 2021</t>
   </si>
   <si>
@@ -125,33 +101,21 @@
     <t>Data science for life sciences with R (part 2)</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2098</t>
-  </si>
-  <si>
     <t>May 2021</t>
   </si>
   <si>
     <t>Data science for life sciences with R (part 1)</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2095</t>
-  </si>
-  <si>
     <t>Mar 2021</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2069</t>
-  </si>
-  <si>
     <t>Nov 2020</t>
   </si>
   <si>
     <t>Planning experimental designs, repeated measurements, and their analyses in R</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2066</t>
-  </si>
-  <si>
     <t>Oct 2020</t>
   </si>
   <si>
@@ -179,18 +143,9 @@
     <t>Nov 2019</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2042</t>
-  </si>
-  <si>
-    <t>Thünen-Institut, Braunschweig</t>
-  </si>
-  <si>
     <t>Oct 2019</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2041</t>
-  </si>
-  <si>
     <t>Sep 2019</t>
   </si>
   <si>
@@ -206,9 +161,6 @@
     <t>Mixed models with R</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=2045</t>
-  </si>
-  <si>
     <t>May 2018</t>
   </si>
   <si>
@@ -272,9 +224,6 @@
     <t>Gemischte Modelle in R</t>
   </si>
   <si>
-    <t xml:space="preserve">Thünen-Institut, Braunschweig via zoom </t>
-  </si>
-  <si>
     <t xml:space="preserve">Universität Bonn via zoom </t>
   </si>
   <si>
@@ -302,21 +251,9 @@
     <t>Pro-RUWA via zoom</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6114</t>
-  </si>
-  <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6111</t>
-  </si>
-  <si>
     <t>Jun 2023</t>
   </si>
   <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6112</t>
-  </si>
-  <si>
-    <t>https://biometrie-bmel.de/Kursinhalt?Kurs=6113</t>
-  </si>
-  <si>
     <t>R Introduction</t>
   </si>
   <si>
@@ -336,6 +273,111 @@
   </si>
   <si>
     <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>Data Science for experimental life sciences with R (part 2)</t>
+  </si>
+  <si>
+    <t>Data Science in den experimentellen Naturwissenschaften (Teil 2)</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Data Analysis mit Python</t>
+  </si>
+  <si>
+    <t>Data Analysis with Python</t>
+  </si>
+  <si>
+    <t>Mar 2024</t>
+  </si>
+  <si>
+    <t>96h</t>
+  </si>
+  <si>
+    <t>Bundeswehr (e-learning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forschungseinrichtungen BMEL via zoom </t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=8114</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=8113</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6113</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6112</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6111</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6114</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3113</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3114</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3111</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3112</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3106</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3104</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3105</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3103</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2098</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2095</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2069</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2066</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2042</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2041</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2045</t>
+  </si>
+  <si>
+    <t>Forsch.Einr. BMEL, Braunschweig</t>
+  </si>
+  <si>
+    <t>Planning exp. designs, repeated meas., and their analyses in R</t>
   </si>
 </sst>
 </file>
@@ -688,24 +730,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5546875" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="214.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="214.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,697 +756,787 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1412,217 +1545,325 @@
         <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Schmidtpaul.github.io\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSchmidt\Documents\GitHub\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92FCABE-B923-4F06-BF83-E325EDB8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20CAA1-DC0A-4AD1-8BF8-204A1E132160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1905" windowWidth="29040" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="workshops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="119">
   <si>
     <t>Time</t>
   </si>
@@ -378,6 +378,21 @@
   </si>
   <si>
     <t>Planning exp. designs, repeated meas., and their analyses in R</t>
+  </si>
+  <si>
+    <t>Hochschule Nürtingen-Geislingen</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Field Trials &amp; Statistics: An Interactive Consultation</t>
+  </si>
+  <si>
+    <t>Feldversuche &amp; Statistik: Eine interaktive Beratung</t>
+  </si>
+  <si>
+    <t>Apr 2024</t>
   </si>
 </sst>
 </file>
@@ -730,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +791,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -802,28 +817,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,10 +846,10 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -843,13 +858,13 @@
         <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,10 +872,10 @@
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -869,50 +884,50 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -921,10 +936,10 @@
         <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -932,13 +947,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -947,10 +962,10 @@
         <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -958,25 +973,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -984,13 +999,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -999,10 +1014,10 @@
         <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1010,25 +1025,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1036,13 +1051,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1051,50 +1066,50 @@
         <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1103,27 +1118,27 @@
         <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
@@ -1135,7 +1150,7 @@
         <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1143,36 +1158,36 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1181,27 +1196,27 @@
         <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -1213,33 +1228,33 @@
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1247,10 +1262,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1265,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1273,10 +1288,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1291,7 +1306,7 @@
         <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,10 +1314,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1311,50 +1326,50 @@
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1363,39 +1378,39 @@
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,10 +1418,10 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -1421,7 +1436,7 @@
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,10 +1444,10 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1447,18 +1462,18 @@
         <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1467,24 +1482,24 @@
         <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
         <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1499,38 +1514,38 @@
         <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
         <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1551,44 +1566,44 @@
         <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1603,18 +1618,18 @@
         <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1623,10 +1638,10 @@
         <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -1634,51 +1649,51 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
         <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
         <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -1686,39 +1701,39 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1727,24 +1742,24 @@
         <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1753,24 +1768,24 @@
         <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1785,84 +1800,136 @@
         <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
         <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G45" t="s">
         <v>56</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H45" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/workshops.xlsx
+++ b/src/workshops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSchmidt\Documents\GitHub\Schmidtpaul.github.io\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20CAA1-DC0A-4AD1-8BF8-204A1E132160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678AE8E5-56D0-4533-AA7A-DF622517CFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
+    <workbookView xWindow="-26910" yWindow="1350" windowWidth="23010" windowHeight="14925" xr2:uid="{F0AB6A39-BE07-4CE8-88BD-6FF51F9B1FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="workshops" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="126">
   <si>
     <t>Time</t>
   </si>
@@ -272,127 +272,148 @@
     <t>Oct 2023</t>
   </si>
   <si>
+    <t>Data Science for experimental life sciences with R (part 2)</t>
+  </si>
+  <si>
+    <t>Data Science in den experimentellen Naturwissenschaften (Teil 2)</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Data Analysis mit Python</t>
+  </si>
+  <si>
+    <t>Data Analysis with Python</t>
+  </si>
+  <si>
+    <t>Mar 2024</t>
+  </si>
+  <si>
+    <t>96h</t>
+  </si>
+  <si>
+    <t>Bundeswehr (e-learning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forschungseinrichtungen BMEL via zoom </t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6113</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6112</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6111</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6114</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3113</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3114</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3111</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3112</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3106</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3104</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3105</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3103</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2098</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2095</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2069</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2066</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2042</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2041</t>
+  </si>
+  <si>
+    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2045</t>
+  </si>
+  <si>
+    <t>Forsch.Einr. BMEL, Braunschweig</t>
+  </si>
+  <si>
+    <t>Planning exp. designs, repeated meas., and their analyses in R</t>
+  </si>
+  <si>
+    <t>Apr 2024</t>
+  </si>
+  <si>
+    <t>Feb 2024</t>
+  </si>
+  <si>
+    <t>Advanced data visualization in R</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>https://schmidtpaul.github.io/70BiomColl_AdvDataVisR/</t>
+  </si>
+  <si>
+    <t>Data Science with R (part 2)</t>
+  </si>
+  <si>
+    <t>Jul 2024</t>
+  </si>
+  <si>
+    <t>70th Biometrical Colloquium</t>
+  </si>
+  <si>
     <t>Dec 2023</t>
   </si>
   <si>
-    <t>Data Science for experimental life sciences with R (part 2)</t>
-  </si>
-  <si>
-    <t>Data Science in den experimentellen Naturwissenschaften (Teil 2)</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Data Analysis mit Python</t>
-  </si>
-  <si>
-    <t>Data Analysis with Python</t>
-  </si>
-  <si>
-    <t>Mar 2024</t>
-  </si>
-  <si>
-    <t>96h</t>
-  </si>
-  <si>
-    <t>Bundeswehr (e-learning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forschungseinrichtungen BMEL via zoom </t>
-  </si>
-  <si>
     <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=8114</t>
   </si>
   <si>
     <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=8113</t>
   </si>
   <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6113</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6112</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6111</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=6114</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3113</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3114</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3111</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3112</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3106</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3104</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3105</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=3103</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2098</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2095</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2069</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2066</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2042</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2041</t>
-  </si>
-  <si>
-    <t>https://biometrie-Forschungseinrichtungen BMEL.de/Kursinhalt?Kurs=2045</t>
-  </si>
-  <si>
-    <t>Forsch.Einr. BMEL, Braunschweig</t>
-  </si>
-  <si>
-    <t>Planning exp. designs, repeated meas., and their analyses in R</t>
-  </si>
-  <si>
-    <t>Hochschule Nürtingen-Geislingen</t>
+    <t>Hochschule Nürtingen via zoom</t>
   </si>
   <si>
     <t>8h</t>
   </si>
   <si>
-    <t>Field Trials &amp; Statistics: An Interactive Consultation</t>
-  </si>
-  <si>
-    <t>Feldversuche &amp; Statistik: Eine interaktive Beratung</t>
-  </si>
-  <si>
-    <t>Apr 2024</t>
+    <t>Feldversuche und Statistik - Interaktive Beratung</t>
+  </si>
+  <si>
+    <t>Field Trials und Statistics - Interactive Consultation</t>
   </si>
 </sst>
 </file>
@@ -449,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,7 +510,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -595,7 +616,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,7 +758,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D9077-CF30-4A69-AF4E-90FD4165AE08}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,9 +779,9 @@
     <col min="3" max="3" width="77.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="214.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -791,25 +812,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -817,25 +838,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -843,25 +864,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -869,77 +890,77 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -947,25 +968,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -973,25 +994,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -999,51 +1020,51 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1051,129 +1072,129 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -1181,7 +1202,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1193,21 +1214,21 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -1219,39 +1240,39 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1259,623 +1280,623 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
         <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
         <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
         <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
         <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
@@ -1883,53 +1904,235 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C52" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G52" t="s">
         <v>56</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H52" t="s">
         <v>12</v>
       </c>
     </row>
